--- a/data/output/03_MASTER_TAG_LIST.xlsx
+++ b/data/output/03_MASTER_TAG_LIST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MASTER TAG LIST" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MASTER TAG LIST" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -446,52 +434,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>target_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>target_units</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>equipment_description</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>target_name_description</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>target_scaling</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>states</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>iconics_plc_path</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>target_description</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>description_source</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>screens</t>
         </is>
@@ -1007,7 +995,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1051,7 +1039,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1087,7 +1075,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1115,7 +1103,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1295,7 +1283,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1323,7 +1311,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1351,7 +1339,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1379,7 +1367,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1407,7 +1395,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2271,7 +2259,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2311,7 +2299,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2351,7 +2339,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -2391,7 +2379,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -2431,7 +2419,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -2591,7 +2579,7 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -2619,7 +2607,7 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -2647,7 +2635,7 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2755,7 +2743,7 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -2783,7 +2771,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -2811,7 +2799,7 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2839,7 +2827,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2867,7 +2855,7 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -2895,7 +2883,7 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2923,7 +2911,7 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -3479,7 +3467,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Process Value</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -3523,7 +3511,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Process Value</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -5075,7 +5063,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Process Value</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -5603,7 +5591,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Process Value</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -5647,7 +5635,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Process Value</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -5687,7 +5675,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Process Value</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -5863,7 +5851,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Control Valve</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -5987,7 +5975,7 @@
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -6371,7 +6359,7 @@
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -6435,7 +6423,7 @@
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -6655,7 +6643,7 @@
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -6719,7 +6707,7 @@
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
@@ -6783,7 +6771,7 @@
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
@@ -6819,7 +6807,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
@@ -6859,7 +6847,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -6903,7 +6891,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -6943,7 +6931,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -6983,7 +6971,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -7027,7 +7015,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -7071,7 +7059,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -8095,7 +8083,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Process Value</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -8139,7 +8127,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Process Value</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -8351,7 +8339,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -8395,7 +8383,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -8695,7 +8683,7 @@
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -8723,7 +8711,7 @@
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -8751,7 +8739,7 @@
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
@@ -8779,7 +8767,7 @@
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -8847,7 +8835,7 @@
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -8875,7 +8863,7 @@
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -8903,7 +8891,7 @@
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -8931,7 +8919,7 @@
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -8959,7 +8947,7 @@
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -8987,7 +8975,7 @@
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -9015,7 +9003,7 @@
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -9043,7 +9031,7 @@
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -9071,7 +9059,7 @@
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -9099,7 +9087,7 @@
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -9127,7 +9115,7 @@
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -9155,7 +9143,7 @@
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -9183,7 +9171,7 @@
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -9211,7 +9199,7 @@
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -9239,7 +9227,7 @@
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -9551,7 +9539,7 @@
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -9579,7 +9567,7 @@
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -9607,7 +9595,7 @@
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -9635,7 +9623,7 @@
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -9663,7 +9651,7 @@
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -9783,7 +9771,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E255" t="inlineStr"/>
@@ -9823,7 +9811,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -9863,7 +9851,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -9903,7 +9891,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -12243,7 +12231,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -12399,7 +12387,7 @@
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E342" t="inlineStr"/>
@@ -12427,7 +12415,7 @@
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
@@ -12455,7 +12443,7 @@
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -12483,7 +12471,7 @@
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -12511,7 +12499,7 @@
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -12539,7 +12527,7 @@
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -12567,7 +12555,7 @@
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -12595,7 +12583,7 @@
       <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -12623,7 +12611,7 @@
       <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
@@ -12691,7 +12679,7 @@
       <c r="C352" t="inlineStr"/>
       <c r="D352" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -12719,7 +12707,7 @@
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
@@ -12747,7 +12735,7 @@
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E354" t="inlineStr"/>
@@ -12775,7 +12763,7 @@
       <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
@@ -12811,7 +12799,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E356" t="inlineStr"/>
@@ -12847,7 +12835,7 @@
       <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
@@ -12875,7 +12863,7 @@
       <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -12907,7 +12895,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
@@ -12943,7 +12931,7 @@
       <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -12971,7 +12959,7 @@
       <c r="C361" t="inlineStr"/>
       <c r="D361" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -13039,7 +13027,7 @@
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E363" t="inlineStr"/>
@@ -13067,7 +13055,7 @@
       <c r="C364" t="inlineStr"/>
       <c r="D364" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
@@ -13135,7 +13123,7 @@
       <c r="C366" t="inlineStr"/>
       <c r="D366" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E366" t="inlineStr"/>
@@ -13163,7 +13151,7 @@
       <c r="C367" t="inlineStr"/>
       <c r="D367" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E367" t="inlineStr"/>
@@ -13191,7 +13179,7 @@
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
@@ -13219,7 +13207,7 @@
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E369" t="inlineStr"/>
@@ -13247,7 +13235,7 @@
       <c r="C370" t="inlineStr"/>
       <c r="D370" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E370" t="inlineStr"/>
@@ -13279,7 +13267,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E371" t="inlineStr"/>
@@ -13315,7 +13303,7 @@
       <c r="C372" t="inlineStr"/>
       <c r="D372" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E372" t="inlineStr"/>
@@ -13347,7 +13335,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
@@ -13383,7 +13371,7 @@
       <c r="C374" t="inlineStr"/>
       <c r="D374" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E374" t="inlineStr"/>
@@ -13411,7 +13399,7 @@
       <c r="C375" t="inlineStr"/>
       <c r="D375" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -13439,7 +13427,7 @@
       <c r="C376" t="inlineStr"/>
       <c r="D376" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E376" t="inlineStr"/>
@@ -13467,7 +13455,7 @@
       <c r="C377" t="inlineStr"/>
       <c r="D377" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E377" t="inlineStr"/>
@@ -13495,7 +13483,7 @@
       <c r="C378" t="inlineStr"/>
       <c r="D378" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E378" t="inlineStr"/>
@@ -13523,7 +13511,7 @@
       <c r="C379" t="inlineStr"/>
       <c r="D379" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E379" t="inlineStr"/>
@@ -13551,7 +13539,7 @@
       <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E380" t="inlineStr"/>
@@ -13579,7 +13567,7 @@
       <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E381" t="inlineStr"/>
@@ -13607,7 +13595,7 @@
       <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E382" t="inlineStr"/>
@@ -13635,7 +13623,7 @@
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -13663,7 +13651,7 @@
       <c r="C384" t="inlineStr"/>
       <c r="D384" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -13691,7 +13679,7 @@
       <c r="C385" t="inlineStr"/>
       <c r="D385" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -13719,7 +13707,7 @@
       <c r="C386" t="inlineStr"/>
       <c r="D386" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -13747,7 +13735,7 @@
       <c r="C387" t="inlineStr"/>
       <c r="D387" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -13775,7 +13763,7 @@
       <c r="C388" t="inlineStr"/>
       <c r="D388" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -13803,7 +13791,7 @@
       <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E389" t="inlineStr"/>
@@ -13831,7 +13819,7 @@
       <c r="C390" t="inlineStr"/>
       <c r="D390" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E390" t="inlineStr"/>
@@ -13859,7 +13847,7 @@
       <c r="C391" t="inlineStr"/>
       <c r="D391" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E391" t="inlineStr"/>
@@ -13887,7 +13875,7 @@
       <c r="C392" t="inlineStr"/>
       <c r="D392" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E392" t="inlineStr"/>
@@ -13915,7 +13903,7 @@
       <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -13943,7 +13931,7 @@
       <c r="C394" t="inlineStr"/>
       <c r="D394" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -13971,7 +13959,7 @@
       <c r="C395" t="inlineStr"/>
       <c r="D395" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -13999,7 +13987,7 @@
       <c r="C396" t="inlineStr"/>
       <c r="D396" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E396" t="inlineStr"/>
@@ -14027,7 +14015,7 @@
       <c r="C397" t="inlineStr"/>
       <c r="D397" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
@@ -14055,7 +14043,7 @@
       <c r="C398" t="inlineStr"/>
       <c r="D398" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E398" t="inlineStr"/>
@@ -14083,7 +14071,7 @@
       <c r="C399" t="inlineStr"/>
       <c r="D399" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E399" t="inlineStr"/>
@@ -14111,7 +14099,7 @@
       <c r="C400" t="inlineStr"/>
       <c r="D400" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E400" t="inlineStr"/>
@@ -14139,7 +14127,7 @@
       <c r="C401" t="inlineStr"/>
       <c r="D401" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E401" t="inlineStr"/>
@@ -14167,7 +14155,7 @@
       <c r="C402" t="inlineStr"/>
       <c r="D402" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E402" t="inlineStr"/>
@@ -14195,7 +14183,7 @@
       <c r="C403" t="inlineStr"/>
       <c r="D403" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E403" t="inlineStr"/>
@@ -14223,7 +14211,7 @@
       <c r="C404" t="inlineStr"/>
       <c r="D404" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E404" t="inlineStr"/>
@@ -14251,7 +14239,7 @@
       <c r="C405" t="inlineStr"/>
       <c r="D405" t="inlineStr">
         <is>
-          <t>UNCLASSIFIED</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="E405" t="inlineStr"/>
